--- a/test_case_data/api_test_dome.xlsx
+++ b/test_case_data/api_test_dome.xlsx
@@ -216,9 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"operation":"1","content":"自动化测试-消息","send_channel":"1","send_time_type":"1"}</t>
-  </si>
-  <si>
     <t>${id}=[data][id]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +251,10 @@
   </si>
   <si>
     <t>{"operation":0,"id":${id}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"operation":"1","content":"自动化测试-消息","send_channel":"2","send_time_type":"2"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -642,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>43</v>
@@ -835,7 +836,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
@@ -847,10 +848,10 @@
         <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -858,13 +859,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>44</v>
@@ -873,7 +874,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -881,16 +882,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>44</v>
